--- a/po_analysis_by_asin/B089FTMG2B_po_data.xlsx
+++ b/po_analysis_by_asin/B089FTMG2B_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,22 +458,6 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45102.99999999999</v>
-      </c>
-      <c r="B3" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45137.99999999999</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -485,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,22 +497,6 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45107.99999999999</v>
-      </c>
-      <c r="B3" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45138.99999999999</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B089FTMG2B_po_data.xlsx
+++ b/po_analysis_by_asin/B089FTMG2B_po_data.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
